--- a/Plots/top1marker_high.xlsx
+++ b/Plots/top1marker_high.xlsx
@@ -488,637 +488,637 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vascular smooth muscle cells</t>
+          <t>immune plasma cells</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.551122738173099</v>
+        <v>9.085298560672895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>immune plasma cells</t>
+          <t>eye cone photoreceptor cells</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.085298560672895</v>
+        <v>6.935374149659864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vascular schwann cells</t>
+          <t>brain oligodendrocytes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.797791580400276</v>
+        <v>6.22508038585209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eye cone photoreceptor cells</t>
+          <t>liver hepatocytes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.935374149659864</v>
+        <v>5.703277488614184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>liver hepatocytes</t>
+          <t>testis late spermatids</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.703277488614184</v>
+        <v>5.106293940408436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>small intestine proximal enterocytes</t>
+          <t>brain oligodendrocyte precursor cells</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.586423097762984</v>
+        <v>5.045883206383751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>testis late spermatids</t>
+          <t>small intestine proximal enterocytes</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.106293940408436</v>
+        <v>4.844002943340691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>brain oligodendrocyte precursor cells</t>
+          <t>brain inhibitory neurons</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.045883206383751</v>
+        <v>4.446964542224238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>skin smooth muscle cells</t>
+          <t>colon distal enterocytes</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.032843137254902</v>
+        <v>3.729681404421326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>esophagus schwann cells</t>
+          <t>brain astrocytes</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.991666666666666</v>
+        <v>3.195402298850575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>breast fibroblasts</t>
+          <t>placenta syncytiotrophoblasts</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.855421686746987</v>
+        <v>2.881351200446677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bronchus ciliated cells</t>
+          <t>colon undifferentiated cells</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.692307692307693</v>
+        <v>2.772928526249209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lung alveolar cells type 1</t>
+          <t>immune t-cells</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.772613182113972</v>
+        <v>2.743131995190084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>immune dendritic cells</t>
+          <t>fallopian tube neutrophils</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.357831325301205</v>
+        <v>2.630722836516495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>colon distal enterocytes</t>
+          <t>esophagus schwann cells</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.172425474254743</v>
+        <v>2.608695652173913</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>placenta smooth muscle cells</t>
+          <t>placenta hofbauer cells</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.161376545272302</v>
+        <v>2.577499867521594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bronchus club cells</t>
+          <t>fallopian tube fibroblasts</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.930359085963003</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>placenta syncytiotrophoblasts</t>
+          <t>heart muscle cardiomyocytes</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.881351200446677</v>
+        <v>2.317629179331307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>colon undifferentiated cells</t>
+          <t>pbmc platelets</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.772928526249209</v>
+        <v>2.125691244239631</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>immune t-cells</t>
+          <t>immune granulocytes</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.743131995190084</v>
+        <v>2.077770740975301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>brain astrocytes</t>
+          <t>tongue basal keratinocytes</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.680941245249927</v>
+        <v>1.981742354031511</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fallopian tube neutrophils</t>
+          <t>eye bipolar cells</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.630722836516495</v>
+        <v>1.963903743315508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>placenta hofbauer cells</t>
+          <t>testis spermatocytes</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.577499867521594</v>
+        <v>1.753327143299288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>brain oligodendrocytes</t>
+          <t>vascular schwann cells</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.452487008166295</v>
+        <v>1.719525186425202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fallopian tube fibroblasts</t>
+          <t>brain microglial cells</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.375</v>
+        <v>1.674761758376883</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>brain excitatory neurons</t>
+          <t>stomach gastric mucus-secreting cells</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.323077943175413</v>
+        <v>1.591695501730104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>testis leydig cells</t>
+          <t>placenta extravillous trophoblasts</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.155021834061136</v>
+        <v>1.57843137254902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pbmc platelets</t>
+          <t>breast adipocytes</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.125691244239631</v>
+        <v>1.475555555555556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>immune granulocytes</t>
+          <t>breast breast glandular cells</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.077770740975301</v>
+        <v>1.4696735395189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eye rod photoreceptor cells</t>
+          <t>endometrium endometrial stromal cells</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.003694848945881</v>
+        <v>1.428353658536585</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tongue basal keratinocytes</t>
+          <t>heart muscle endothelial cells</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.981742354031511</v>
+        <v>1.405405405405405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lung endothelial cells</t>
+          <t>lung alveolar cells type 2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.876211782252051</v>
+        <v>1.378521845651286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tongue suprabasal keratinocytes</t>
+          <t>endometrium glandular and luminal cells</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.816453382084095</v>
+        <v>1.33875909613175</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pancreas ductal cells</t>
+          <t>liver kupffer cells</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.789444749862562</v>
+        <v>1.317693253480347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>brain inhibitory neurons</t>
+          <t>kidney distal tubular cells</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.77471906012843</v>
+        <v>1.198012232415902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>testis spermatocytes</t>
+          <t>liver fibroblasts</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.753327143299288</v>
+        <v>1.189189189189189</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>immune monocytes</t>
+          <t>eye muller glia cells</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.678811316914309</v>
+        <v>1.187381737579067</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>brain microglial cells</t>
+          <t>adipose tissue adipocytes</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.674761758376883</v>
+        <v>1.172686230248307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kidney proximal tubular cells</t>
+          <t>immune dendritic cells</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.603365384615385</v>
+        <v>1.147727272727273</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>stomach gastric mucus-secreting cells</t>
+          <t>skeletal muscle skeletal myocytes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.591695501730104</v>
+        <v>1.022222222222222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>placenta extravillous trophoblasts</t>
+          <t>esophagus fibroblasts</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.57843137254902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>small intestine enteroendocrine cells</t>
+          <t>breast endothelial cells</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.572831423895254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>testis early spermatids</t>
+          <t>bronchus basal respiratory cells</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.548825710754017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>skeletal muscle skeletal myocytes</t>
+          <t>immune monocytes</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.488789237668162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>breast adipocytes</t>
+          <t>immune nk-cells</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.475555555555556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>breast breast glandular cells</t>
+          <t>breast smooth muscle cells</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.4696735395189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>eye bipolar cells</t>
+          <t>breast fibroblasts</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.463647199046484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bronchus basal respiratory cells</t>
+          <t>kidney collecting duct cells</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.450598139122729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fallopian tube secretory cells</t>
+          <t>breast breast myoepithelial cells</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.439535803771594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>endometrium endometrial stromal cells</t>
+          <t>bronchus club cells</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.428353658536585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>heart muscle endothelial cells</t>
+          <t>liver cholangiocytes</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.405405405405405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lung alveolar cells type 2</t>
+          <t>liver endothelial cells</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.378521845651286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>adipose tissue smooth muscle cells</t>
+          <t>liver erythroid cells</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.357723577235773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>endometrium glandular and luminal cells</t>
+          <t>brain excitatory neurons</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.33875909613175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>liver kupffer cells</t>
+          <t>bone marrow erythroid cells</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.317693253480347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>immune macrophages</t>
+          <t>adipose tissue smooth muscle cells</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.253955324620726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kidney distal tubular cells</t>
+          <t>adipose tissue fibroblasts</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.198012232415902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>liver fibroblasts</t>
+          <t>bronchus ciliated cells</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.189189189189189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eye muller glia cells</t>
+          <t>heart muscle fibroblasts</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.187381737579067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>adipose tissue adipocytes</t>
+          <t>esophagus smooth muscle cells</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.172686230248307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>placenta cytotrophoblasts</t>
+          <t>bronchus ionocytes</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.129302325581395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ovary lymphatic endothelial cells</t>
+          <t>liver smooth muscle cells</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.018518518518518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>skin fibroblasts</t>
+          <t>endometrium smooth muscle cells</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.005172413793103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>testis spermatogonia</t>
+          <t>eye horizontal cells</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>salivary gland salivary duct cells</t>
+          <t>endometrium endothelial cells</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>esophagus smooth muscle cells</t>
+          <t>eye rod photoreceptor cells</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>thymus endothelial cells</t>
+          <t>fallopian tube endothelial cells</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>fallopian tube endothelial cells</t>
+          <t>fallopian tube lymphatic endothelial cells</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>esophagus fibroblasts</t>
+          <t>endometrium ciliated cells</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>esophagus basal squamous epithelial cells</t>
+          <t>fallopian tube secretory cells</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>testis sertoli cells</t>
+          <t>fallopian tube smooth muscle cells</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>endometrium smooth muscle cells</t>
+          <t>colon paneth cells</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>colon paneth cells</t>
+          <t>colon intestinal goblet cells</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>endometrium endothelial cells</t>
+          <t>colon enteroendocrine cells</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tongue serous glandular cells</t>
+          <t>bronchus smooth muscle cells</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>adipose tissue fibroblasts</t>
+          <t>esophagus basal squamous epithelial cells</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bone marrow erythroid cells</t>
+          <t>vascular smooth muscle cells</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>vascular fibroblasts</t>
+          <t>salivary gland mucus glandular cells</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>vascular endothelial cells</t>
+          <t>stomach fibroblasts</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>skeletal muscle endothelial cells</t>
+          <t>salivary gland salivary duct cells</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tongue smooth muscle cells</t>
+          <t>skeletal muscle endothelial cells</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>breast breast myoepithelial cells</t>
+          <t>skeletal muscle fibroblasts</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>breast smooth muscle cells</t>
+          <t>skeletal muscle smooth muscle cells</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>endometrium ciliated cells</t>
+          <t>skin basal keratinocytes</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>tongue endothelial cells</t>
+          <t>skin endothelial cells</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>thymus smooth muscle cells</t>
+          <t>skin fibroblasts</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bronchus ionocytes</t>
+          <t>skin smooth muscle cells</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bronchus smooth muscle cells</t>
+          <t>small intestine enteroendocrine cells</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>colon enteroendocrine cells</t>
+          <t>small intestine intestinal goblet cells</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>colon intestinal goblet cells</t>
+          <t>small intestine paneth cells</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>testis endothelial cells</t>
+          <t>small intestine undifferentiated cells</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>thymus fibroblasts</t>
+          <t>testis endothelial cells</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rectum distal enterocytes</t>
+          <t>rectum undifferentiated cells</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rectum enteroendocrine cells</t>
+          <t>testis leydig cells</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ovary endothelial cells</t>
+          <t>testis peritubular cells</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>small intestine intestinal goblet cells</t>
+          <t>testis sertoli cells</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>rectum undifferentiated cells</t>
+          <t>testis spermatogonia</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lung fibroblasts</t>
+          <t>thymus endothelial cells</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>lung smooth muscle cells</t>
+          <t>thymus fibroblasts</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>salivary gland mucus glandular cells</t>
+          <t>thymus smooth muscle cells</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ovary granulosa cells</t>
+          <t>tongue endothelial cells</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ovary ovarian stromal cells</t>
+          <t>tongue serous glandular cells</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ovary smooth muscle cells</t>
+          <t>tongue smooth muscle cells</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>rectum paneth cells</t>
+          <t>tongue suprabasal keratinocytes</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>pancreas endothelial cells</t>
+          <t>vascular endothelial cells</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>pancreas fibroblasts</t>
+          <t>vascular fibroblasts</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>pancreas pancreatic endocrine cells</t>
+          <t>salivary gland endothelial cells</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>placenta endothelial cells</t>
+          <t>lung endothelial cells</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>rectum intestinal goblet cells</t>
+          <t>rectum paneth cells</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>skin endothelial cells</t>
+          <t>ovary smooth muscle cells</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>skin basal keratinocytes</t>
+          <t>rectum intestinal goblet cells</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>prostate endothelial cells</t>
+          <t>pancreas pancreatic endocrine cells</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>skeletal muscle smooth muscle cells</t>
+          <t>pancreas fibroblasts</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>prostate club cells</t>
+          <t>pancreas exocrine glandular cells</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lung club cells</t>
+          <t>pancreas endothelial cells</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>small intestine undifferentiated cells</t>
+          <t>pancreas ductal cells</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>prostate fibroblasts</t>
+          <t>ovary ovarian stromal cells</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>prostate smooth muscle cells</t>
+          <t>placenta fibroblasts</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>prostate prostatic glandular cells</t>
+          <t>ovary lymphatic endothelial cells</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>stomach fibroblasts</t>
+          <t>ovary granulosa cells</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>kidney collecting duct cells</t>
+          <t>ovary endothelial cells</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>salivary gland endothelial cells</t>
+          <t>lung smooth muscle cells</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>prostate basal prostatic cells</t>
+          <t>lung fibroblasts</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>small intestine paneth cells</t>
+          <t>lung club cells</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>liver smooth muscle cells</t>
+          <t>placenta endothelial cells</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>liver endothelial cells</t>
+          <t>placenta cytotrophoblasts</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,171 +1768,171 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>breast endothelial cells</t>
+          <t>placenta smooth muscle cells</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9948542024013722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>lung ciliated cells</t>
+          <t>prostate endothelial cells</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9782608695652173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>skeletal muscle fibroblasts</t>
+          <t>rectum enteroendocrine cells</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9236814891416754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fallopian tube smooth muscle cells</t>
+          <t>prostate smooth muscle cells</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.8739495798319328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>adipose tissue schwann cells</t>
+          <t>prostate prostatic glandular cells</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7974765770084052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>eye horizontal cells</t>
+          <t>prostate fibroblasts</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.7885117493472585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>fallopian tube lymphatic endothelial cells</t>
+          <t>rectum distal enterocytes</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.7804459691252145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>immune nk-cells</t>
+          <t>prostate club cells</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.7662547017732403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>skin langerhans cells</t>
+          <t>prostate basal prostatic cells</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.7622707139919797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>thymus mesothelial cells</t>
+          <t>adipose tissue schwann cells</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.69466837669476</v>
+        <v>0.7974765770084052</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>placenta fibroblasts</t>
+          <t>skin langerhans cells</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6893708002443494</v>
+        <v>0.7622707139919797</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>liver erythroid cells</t>
+          <t>immune macrophages</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6832247557003258</v>
+        <v>0.7589019655058243</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>esophagus endothelial cells</t>
+          <t>thymus mesothelial cells</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6435643564356436</v>
+        <v>0.69466837669476</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>esophagus squamous epithelial cells</t>
+          <t>lung ciliated cells</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5801401869158879</v>
+        <v>0.6936090225563909</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>pancreas exocrine glandular cells</t>
+          <t>esophagus endothelial cells</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5558097962102252</v>
+        <v>0.6435643564356436</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>heart muscle fibroblasts</t>
+          <t>lung alveolar cells type 1</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.535068637011477</v>
+        <v>0.556420233463035</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>liver cholangiocytes</t>
+          <t>testis early spermatids</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.5089285714285715</v>
+        <v>0.453833470733718</v>
       </c>
     </row>
     <row r="151">
@@ -1948,21 +1948,21 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>heart muscle cardiomyocytes</t>
+          <t>salivary gland serous glandular cells</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.4074682547831742</v>
+        <v>0.3645468033450229</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>salivary gland serous glandular cells</t>
+          <t>esophagus squamous epithelial cells</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.3645468033450229</v>
+        <v>0.327848228663446</v>
       </c>
     </row>
     <row r="154">
@@ -1978,11 +1978,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>testis peritubular cells</t>
+          <t>kidney proximal tubular cells</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.2026769287896434</v>
+        <v>0.2064408324472125</v>
       </c>
     </row>
   </sheetData>

--- a/Plots/top1marker_high.xlsx
+++ b/Plots/top1marker_high.xlsx
@@ -488,431 +488,431 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>immune plasma cells</t>
+          <t>vascular smooth muscle cells</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.085298560672895</v>
+        <v>9.551122738173099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>eye cone photoreceptor cells</t>
+          <t>immune plasma cells</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.935374149659864</v>
+        <v>9.085298560672895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>brain oligodendrocytes</t>
+          <t>eye cone photoreceptor cells</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.22508038585209</v>
+        <v>6.935374149659864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>liver hepatocytes</t>
+          <t>skin fibroblasts</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.703277488614184</v>
+        <v>5.828552803129075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>testis late spermatids</t>
+          <t>liver hepatocytes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.106293940408436</v>
+        <v>5.703277488614184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>brain oligodendrocyte precursor cells</t>
+          <t>small intestine proximal enterocytes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.045883206383751</v>
+        <v>5.586423097762984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>small intestine proximal enterocytes</t>
+          <t>testis late spermatids</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.844002943340691</v>
+        <v>5.106293940408436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>brain inhibitory neurons</t>
+          <t>brain oligodendrocyte precursor cells</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.446964542224238</v>
+        <v>5.045883206383751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>colon distal enterocytes</t>
+          <t>skin smooth muscle cells</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.729681404421326</v>
+        <v>5.032843137254902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>brain astrocytes</t>
+          <t>esophagus fibroblasts</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.195402298850575</v>
+        <v>4.821056062581486</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>placenta syncytiotrophoblasts</t>
+          <t>bronchus ciliated cells</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.881351200446677</v>
+        <v>4.692307692307693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>colon undifferentiated cells</t>
+          <t>thymus smooth muscle cells</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.772928526249209</v>
+        <v>4.633311532592109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>immune t-cells</t>
+          <t>vascular fibroblasts</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.743131995190084</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fallopian tube neutrophils</t>
+          <t>brain inhibitory neurons</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.630722836516495</v>
+        <v>4.446964542224238</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>esophagus schwann cells</t>
+          <t>brain oligodendrocytes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.608695652173913</v>
+        <v>3.891919536310944</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>placenta hofbauer cells</t>
+          <t>lung alveolar cells type 1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.577499867521594</v>
+        <v>3.772613182113972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fallopian tube fibroblasts</t>
+          <t>tongue suprabasal keratinocytes</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.375</v>
+        <v>3.752839667977283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>heart muscle cardiomyocytes</t>
+          <t>immune dendritic cells</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.317629179331307</v>
+        <v>3.357831325301205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pbmc platelets</t>
+          <t>colon distal enterocytes</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.125691244239631</v>
+        <v>3.172425474254743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>immune granulocytes</t>
+          <t>placenta smooth muscle cells</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.077770740975301</v>
+        <v>3.161376545272302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tongue basal keratinocytes</t>
+          <t>salivary gland fibroblasts</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.981742354031511</v>
+        <v>2.963820078226858</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eye bipolar cells</t>
+          <t>thymus endothelial cells</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.963903743315508</v>
+        <v>2.893187393847896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>testis spermatocytes</t>
+          <t>fallopian tube smooth muscle cells</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.753327143299288</v>
+        <v>2.886949462147351</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vascular schwann cells</t>
+          <t>placenta syncytiotrophoblasts</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.719525186425202</v>
+        <v>2.881351200446677</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>brain microglial cells</t>
+          <t>colon undifferentiated cells</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.674761758376883</v>
+        <v>2.772928526249209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>stomach gastric mucus-secreting cells</t>
+          <t>testis early spermatids</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.591695501730104</v>
+        <v>2.764182424916574</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>placenta extravillous trophoblasts</t>
+          <t>immune t-cells</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.57843137254902</v>
+        <v>2.743131995190084</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>breast adipocytes</t>
+          <t>brain astrocytes</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.475555555555556</v>
+        <v>2.680941245249927</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>breast breast glandular cells</t>
+          <t>fallopian tube neutrophils</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.4696735395189</v>
+        <v>2.630722836516495</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>endometrium endometrial stromal cells</t>
+          <t>placenta hofbauer cells</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.428353658536585</v>
+        <v>2.577499867521594</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>heart muscle endothelial cells</t>
+          <t>bone marrow erythroid cells</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.405405405405405</v>
+        <v>2.522099447513812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lung alveolar cells type 2</t>
+          <t>pancreas endothelial cells</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.378521845651286</v>
+        <v>2.473485563313833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>endometrium glandular and luminal cells</t>
+          <t>brain excitatory neurons</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.33875909613175</v>
+        <v>2.323077943175413</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>liver kupffer cells</t>
+          <t>esophagus endothelial cells</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.317693253480347</v>
+        <v>2.299301755048123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kidney distal tubular cells</t>
+          <t>thymus fibroblasts</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.198012232415902</v>
+        <v>2.226</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>liver fibroblasts</t>
+          <t>testis leydig cells</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.189189189189189</v>
+        <v>2.155021834061136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eye muller glia cells</t>
+          <t>pbmc platelets</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.187381737579067</v>
+        <v>2.125691244239631</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>adipose tissue adipocytes</t>
+          <t>immune granulocytes</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.172686230248307</v>
+        <v>2.077770740975301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>immune dendritic cells</t>
+          <t>tongue basal keratinocytes</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.147727272727273</v>
+        <v>1.981742354031511</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>skeletal muscle skeletal myocytes</t>
+          <t>adipose tissue smooth muscle cells</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.022222222222222</v>
+        <v>1.947242206235012</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>esophagus fibroblasts</t>
+          <t>breast adipocytes</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>1.903984616072627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>breast endothelial cells</t>
+          <t>testis spermatocytes</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>1.753327143299288</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bronchus basal respiratory cells</t>
+          <t>pancreas fibroblasts</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1.679245283018868</v>
       </c>
     </row>
     <row r="49">
@@ -922,373 +922,373 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>1.678811316914309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>immune nk-cells</t>
+          <t>brain microglial cells</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>1.674761758376883</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>breast smooth muscle cells</t>
+          <t>rectum intestinal goblet cells</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>1.674351585014409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>breast fibroblasts</t>
+          <t>lung endothelial cells</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>1.667651067696502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kidney collecting duct cells</t>
+          <t>skeletal muscle fibroblasts</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>1.629529953917051</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>breast breast myoepithelial cells</t>
+          <t>salivary gland smooth muscle cells</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>1.606860158311346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bronchus club cells</t>
+          <t>stomach gastric mucus-secreting cells</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>1.591695501730104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>liver cholangiocytes</t>
+          <t>placenta extravillous trophoblasts</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>1.57843137254902</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>liver endothelial cells</t>
+          <t>small intestine enteroendocrine cells</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>1.572831423895254</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>liver erythroid cells</t>
+          <t>adipose tissue fibroblasts</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>1.521142857142857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>brain excitatory neurons</t>
+          <t>breast breast glandular cells</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>1.4696735395189</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bone marrow erythroid cells</t>
+          <t>stomach fibroblasts</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>1.465449804432855</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>adipose tissue smooth muscle cells</t>
+          <t>eye bipolar cells</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>1.463647199046484</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>adipose tissue fibroblasts</t>
+          <t>lung smooth muscle cells</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>1.443190661478599</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bronchus ciliated cells</t>
+          <t>ovary smooth muscle cells</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>1.38319464176984</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>heart muscle fibroblasts</t>
+          <t>lung alveolar cells type 2</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>1.378521845651286</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>esophagus smooth muscle cells</t>
+          <t>fallopian tube fibroblasts</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>1.377014925373134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bronchus ionocytes</t>
+          <t>endometrium endothelial cells</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>1.358617950754567</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>liver smooth muscle cells</t>
+          <t>endometrium glandular and luminal cells</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>1.33875909613175</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>endometrium smooth muscle cells</t>
+          <t>liver kupffer cells</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>1.317693253480347</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>eye horizontal cells</t>
+          <t>adipose tissue adipocytes</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>1.304822565969063</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>endometrium endothelial cells</t>
+          <t>vascular endothelial cells</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>1.272603362108133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eye rod photoreceptor cells</t>
+          <t>immune macrophages</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>1.253955324620726</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>fallopian tube ciliated cells</t>
+          <t>bronchus basal respiratory cells</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>1.231857764876633</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>fallopian tube endothelial cells</t>
+          <t>heart muscle smooth muscle cells</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>1.224963715529753</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>fallopian tube lymphatic endothelial cells</t>
+          <t>breast fibroblasts</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>1.19889400921659</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>endometrium ciliated cells</t>
+          <t>kidney distal tubular cells</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>1.198012232415902</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>fallopian tube secretory cells</t>
+          <t>liver fibroblasts</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>1.189189189189189</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>fallopian tube smooth muscle cells</t>
+          <t>skin endothelial cells</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>1.156255897339121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>colon paneth cells</t>
+          <t>skeletal muscle endothelial cells</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>1.150367780055469</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>colon intestinal goblet cells</t>
+          <t>rectum distal enterocytes</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>1.090989159891599</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>colon enteroendocrine cells</t>
+          <t>immune nk-cells</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bronchus smooth muscle cells</t>
+          <t>breast smooth muscle cells</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>1.050334889385021</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>esophagus basal squamous epithelial cells</t>
+          <t>salivary gland endothelial cells</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>1.039441404038498</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vascular smooth muscle cells</t>
+          <t>skeletal muscle skeletal myocytes</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>1.022222222222222</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>salivary gland mucus glandular cells</t>
+          <t>ovary lymphatic endothelial cells</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>1.012820512820513</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>stomach fibroblasts</t>
+          <t>tongue endothelial cells</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>1.005565651976374</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>salivary gland salivary duct cells</t>
+          <t>fallopian tube secretory cells</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>salivary gland smooth muscle cells</t>
+          <t>skin basal keratinocytes</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>skeletal muscle endothelial cells</t>
+          <t>bronchus ionocytes</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>skeletal muscle fibroblasts</t>
+          <t>tongue serous glandular cells</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>skeletal muscle smooth muscle cells</t>
+          <t>testis spermatogonia</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>skin basal keratinocytes</t>
+          <t>testis sertoli cells</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>skin endothelial cells</t>
+          <t>small intestine intestinal goblet cells</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>skin fibroblasts</t>
+          <t>esophagus basal squamous epithelial cells</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>skin smooth muscle cells</t>
+          <t>breast breast myoepithelial cells</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>small intestine enteroendocrine cells</t>
+          <t>small intestine undifferentiated cells</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>small intestine intestinal goblet cells</t>
+          <t>colon enteroendocrine cells</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>small intestine paneth cells</t>
+          <t>colon intestinal goblet cells</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>small intestine undifferentiated cells</t>
+          <t>prostate prostatic glandular cells</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>testis endothelial cells</t>
+          <t>salivary gland salivary duct cells</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rectum undifferentiated cells</t>
+          <t>prostate basal prostatic cells</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>testis leydig cells</t>
+          <t>ovary ovarian stromal cells</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>testis peritubular cells</t>
+          <t>salivary gland mucus glandular cells</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>testis sertoli cells</t>
+          <t>ovary granulosa cells</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>testis spermatogonia</t>
+          <t>lung club cells</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>thymus endothelial cells</t>
+          <t>rectum undifferentiated cells</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>thymus fibroblasts</t>
+          <t>rectum paneth cells</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>thymus smooth muscle cells</t>
+          <t>liver endothelial cells</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>tongue endothelial cells</t>
+          <t>prostate club cells</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,471 +1518,471 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>tongue serous glandular cells</t>
+          <t>fallopian tube ciliated cells</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>tongue smooth muscle cells</t>
+          <t>rectum enteroendocrine cells</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0.9607201309328969</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>tongue suprabasal keratinocytes</t>
+          <t>prostate smooth muscle cells</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0.9592043840064949</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>vascular endothelial cells</t>
+          <t>lung ciliated cells</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0.9360824742268041</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>vascular fibroblasts</t>
+          <t>skeletal muscle smooth muscle cells</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0.9003087781208646</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>salivary gland endothelial cells</t>
+          <t>vascular schwann cells</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0.8421891362746436</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>lung endothelial cells</t>
+          <t>prostate endothelial cells</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0.8330228018809334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>rectum paneth cells</t>
+          <t>heart muscle endothelial cells</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0.8184010611358978</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ovary smooth muscle cells</t>
+          <t>adipose tissue schwann cells</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0.7974765770084052</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>rectum intestinal goblet cells</t>
+          <t>eye horizontal cells</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0.7885117493472585</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>pancreas pancreatic endocrine cells</t>
+          <t>skin langerhans cells</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.7622707139919797</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>pancreas fibroblasts</t>
+          <t>prostate fibroblasts</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0.7602389078498293</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>pancreas exocrine glandular cells</t>
+          <t>ovary endothelial cells</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0.7584400465657741</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>pancreas endothelial cells</t>
+          <t>liver smooth muscle cells</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0.756572029442692</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pancreas ductal cells</t>
+          <t>eye muller glia cells</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0.7469603776283794</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ovary ovarian stromal cells</t>
+          <t>eye rod photoreceptor cells</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0.7105134950794115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>placenta fibroblasts</t>
+          <t>fallopian tube lymphatic endothelial cells</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0.7095490716180372</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ovary lymphatic endothelial cells</t>
+          <t>tongue smooth muscle cells</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0.696078431372549</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ovary granulosa cells</t>
+          <t>thymus mesothelial cells</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0.69466837669476</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ovary endothelial cells</t>
+          <t>placenta fibroblasts</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0.6893708002443494</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lung smooth muscle cells</t>
+          <t>endometrium smooth muscle cells</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0.6838942307692307</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>lung fibroblasts</t>
+          <t>liver erythroid cells</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0.6832247557003258</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lung club cells</t>
+          <t>placenta cytotrophoblasts</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0.6804232185654995</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>placenta endothelial cells</t>
+          <t>esophagus smooth muscle cells</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0.678429642699603</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>placenta cytotrophoblasts</t>
+          <t>testis endothelial cells</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0.6384295522676725</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>placenta smooth muscle cells</t>
+          <t>breast endothelial cells</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0.6303869141239384</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>prostate endothelial cells</t>
+          <t>endometrium endometrial stromal cells</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0.6146379853095488</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rectum enteroendocrine cells</t>
+          <t>bronchus club cells</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0.5767452747381356</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>prostate smooth muscle cells</t>
+          <t>endometrium ciliated cells</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0.5752577319587628</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>prostate prostatic glandular cells</t>
+          <t>placenta endothelial cells</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0.5740302743614002</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>prostate fibroblasts</t>
+          <t>pancreas exocrine glandular cells</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0.5558097962102252</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>rectum distal enterocytes</t>
+          <t>fallopian tube endothelial cells</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0.5425551990941687</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>prostate club cells</t>
+          <t>lung fibroblasts</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0.5353333333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>prostate basal prostatic cells</t>
+          <t>heart muscle fibroblasts</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0.535068637011477</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>adipose tissue schwann cells</t>
+          <t>esophagus schwann cells</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.7974765770084052</v>
+        <v>0.5291626826936211</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>skin langerhans cells</t>
+          <t>heart muscle cardiomyocytes</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.7622707139919797</v>
+        <v>0.4074682547831742</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>immune macrophages</t>
+          <t>bronchus smooth muscle cells</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.7589019655058243</v>
+        <v>0.3936117936117936</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>thymus mesothelial cells</t>
+          <t>salivary gland serous glandular cells</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.69466837669476</v>
+        <v>0.3645468033450229</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lung ciliated cells</t>
+          <t>liver cholangiocytes</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.6936090225563909</v>
+        <v>0.3576382380506092</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>esophagus endothelial cells</t>
+          <t>esophagus squamous epithelial cells</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6435643564356436</v>
+        <v>0.327848228663446</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>lung alveolar cells type 1</t>
+          <t>small intestine paneth cells</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.556420233463035</v>
+        <v>0.3068889703187981</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>testis early spermatids</t>
+          <t>pancreas ductal cells</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.453833470733718</v>
+        <v>0.2718122769032711</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>heart muscle smooth muscle cells</t>
+          <t>kidney proximal tubular cells</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.4105263157894737</v>
+        <v>0.2064408324472125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>salivary gland serous glandular cells</t>
+          <t>testis peritubular cells</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.3645468033450229</v>
+        <v>0.2026769287896434</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>esophagus squamous epithelial cells</t>
+          <t>kidney collecting duct cells</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.327848228663446</v>
+        <v>0.2003338898163606</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>salivary gland fibroblasts</t>
+          <t>pancreas pancreatic endocrine cells</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2733739837398373</v>
+        <v>0.1401098901098901</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kidney proximal tubular cells</t>
+          <t>colon paneth cells</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.2064408324472125</v>
+        <v>0.09828674481514878</v>
       </c>
     </row>
   </sheetData>
